--- a/generated_docs/WR_89787325_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89787325_WeekEnding_071325.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>Billy Dunnivan</t>
+          <t>BD</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/13/2025 to 07/13/25</t>
+          <t>07/07/2025 to 07/13/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>835-1</t>
+          <t>#NO MATCH-2</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89787325_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89787325_WeekEnding_071325.xlsx
@@ -133,6 +133,10 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -140,10 +144,6 @@
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I27"/>
+  <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6485.299999999999</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>Saturday (07/12/2025)</t>
+          <t>Friday (07/11/2025)</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
     <row r="16">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
@@ -761,267 +761,362 @@
         </is>
       </c>
       <c r="F16" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H17" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>Saturday (07/12/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="10" t="inlineStr"/>
+      <c r="H22" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="inlineStr">
+        <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B17" s="12" t="inlineStr">
+      <c r="B23" s="14" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C17" s="12" t="inlineStr">
+      <c r="C23" s="14" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D17" s="12" t="inlineStr">
+      <c r="D23" s="14" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E17" s="12" t="inlineStr">
+      <c r="E23" s="14" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F17" s="13" t="n">
+      <c r="F23" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="13" t="inlineStr"/>
-      <c r="H17" s="14" t="n">
-        <v>1297.06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="inlineStr">
+      <c r="G23" s="15" t="inlineStr"/>
+      <c r="H23" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>Point 18</t>
         </is>
       </c>
-      <c r="B18" s="9" t="inlineStr">
+      <c r="B24" s="9" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C18" s="9" t="inlineStr">
+      <c r="C24" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D18" s="9" t="inlineStr">
+      <c r="D24" s="9" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E18" s="9" t="inlineStr">
+      <c r="E24" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F18" s="10" t="n">
+      <c r="F24" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="10" t="inlineStr"/>
-      <c r="H18" s="11" t="n">
-        <v>1297.06</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="12" t="inlineStr">
+      <c r="G24" s="10" t="inlineStr"/>
+      <c r="H24" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="inlineStr">
         <is>
           <t>Point 16</t>
         </is>
       </c>
-      <c r="B19" s="12" t="inlineStr">
+      <c r="B25" s="14" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C19" s="12" t="inlineStr">
+      <c r="C25" s="14" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D19" s="12" t="inlineStr">
+      <c r="D25" s="14" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E19" s="12" t="inlineStr">
+      <c r="E25" s="14" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F19" s="13" t="n">
+      <c r="F25" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="13" t="inlineStr"/>
-      <c r="H19" s="14" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H20" s="16" t="n">
-        <v>4539.71</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="inlineStr">
-        <is>
-          <t>Sunday (07/13/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G24" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H24" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="9" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C25" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D25" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E25" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F25" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G25" s="10" t="inlineStr"/>
-      <c r="H25" s="11" t="n">
-        <v>1297.06</v>
+      <c r="G25" s="15" t="inlineStr"/>
+      <c r="H25" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="12" t="inlineStr">
         <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H26" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>Sunday (07/13/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E30" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F30" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G30" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H30" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E31" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="10" t="inlineStr"/>
+      <c r="H31" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="14" t="inlineStr">
+        <is>
           <t>Point 12</t>
         </is>
       </c>
-      <c r="B26" s="12" t="inlineStr">
+      <c r="B32" s="14" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C26" s="12" t="inlineStr">
+      <c r="C32" s="14" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D26" s="12" t="inlineStr">
+      <c r="D32" s="14" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E26" s="12" t="inlineStr">
+      <c r="E32" s="14" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F26" s="13" t="n">
+      <c r="F32" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="G26" s="13" t="inlineStr"/>
-      <c r="H26" s="14" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="15" t="inlineStr">
+      <c r="G32" s="15" t="inlineStr"/>
+      <c r="H32" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H27" s="16" t="n">
-        <v>1945.59</v>
+      <c r="H33" s="13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A29:H29"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A23:H23"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89787325_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89787325_WeekEnding_071325.xlsx
@@ -133,10 +133,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -144,6 +140,10 @@
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I33"/>
+  <dimension ref="A2:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>6485.299999999999</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P7</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -688,7 +684,7 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>Friday (07/11/2025)</t>
+          <t>Saturday (07/12/2025)</t>
         </is>
       </c>
     </row>
@@ -737,7 +733,7 @@
     <row r="16">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
@@ -761,362 +757,267 @@
         </is>
       </c>
       <c r="F16" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E17" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="13" t="inlineStr"/>
+      <c r="H17" s="14" t="n">
+        <v>1297.06</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="10" t="inlineStr"/>
+      <c r="H18" s="11" t="n">
+        <v>1297.06</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B19" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D19" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E19" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13" t="inlineStr"/>
+      <c r="H19" s="14" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="15" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H17" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>Saturday (07/12/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="inlineStr">
+      <c r="H20" s="16" t="n">
+        <v>4539.71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>Sunday (07/13/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C21" s="8" t="inlineStr">
+      <c r="C24" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D21" s="8" t="inlineStr">
+      <c r="D24" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E21" s="8" t="inlineStr">
+      <c r="E24" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F21" s="8" t="inlineStr">
+      <c r="F24" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G21" s="8" t="inlineStr">
+      <c r="G24" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H24" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B22" s="9" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B25" s="9" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C22" s="9" t="inlineStr">
+      <c r="C25" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D22" s="9" t="inlineStr">
+      <c r="D25" s="9" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E22" s="9" t="inlineStr">
+      <c r="E25" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F22" s="10" t="n">
+      <c r="F25" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="10" t="inlineStr"/>
-      <c r="H22" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B23" s="14" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C23" s="14" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D23" s="14" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E23" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F23" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" s="15" t="inlineStr"/>
-      <c r="H23" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="9" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B24" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C24" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D24" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E24" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F24" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="10" t="inlineStr"/>
-      <c r="H24" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B25" s="14" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C25" s="14" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D25" s="14" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E25" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F25" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="15" t="inlineStr"/>
-      <c r="H25" s="16" t="n">
-        <v>0</v>
+      <c r="G25" s="10" t="inlineStr"/>
+      <c r="H25" s="11" t="n">
+        <v>1297.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="12" t="inlineStr">
         <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C26" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D26" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E26" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F26" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13" t="inlineStr"/>
+      <c r="H26" s="14" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="15" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H26" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t>Sunday (07/13/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B30" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C30" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E30" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F30" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G30" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H30" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="9" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B31" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C31" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E31" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F31" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" s="10" t="inlineStr"/>
-      <c r="H31" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="14" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B32" s="14" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C32" s="14" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D32" s="14" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E32" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F32" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="15" t="inlineStr"/>
-      <c r="H32" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="12" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H33" s="13" t="n">
-        <v>0</v>
+      <c r="H27" s="16" t="n">
+        <v>1945.59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="14">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A27:G27"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A20:G20"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A23:H23"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A33:G33"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
